--- a/2do/Hmmm_Artifact_nom_nom_nom_ahhhhhhh.xlsx
+++ b/2do/Hmmm_Artifact_nom_nom_nom_ahhhhhhh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Games\S.T.A.L.K.E.R\Anomaly Mods\mods\Back-to-roots-wip\2do\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8A57293-8349-406B-9FCD-AEF6F153B794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B384EE-7F62-46A1-B50D-DC40A38C91BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="2040" windowWidth="22695" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5700" yWindow="300" windowWidth="22695" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="60">
   <si>
     <t>CoP</t>
   </si>
@@ -225,18 +225,94 @@
       <t>56</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -458,10 +534,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -481,8 +557,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -790,7 +867,7 @@
   <dimension ref="A1:AB77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2718,15 +2795,15 @@
       <c r="P50" s="6"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="23" t="s">
         <v>11</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
-      <c r="F51" s="12">
-        <v>3</v>
+      <c r="F51" s="24" t="s">
+        <v>57</v>
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="11">
@@ -2742,15 +2819,15 @@
       <c r="P51" s="6"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
-      <c r="F52" s="12">
-        <v>2</v>
+      <c r="F52" s="24" t="s">
+        <v>58</v>
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="11">
@@ -2766,15 +2843,15 @@
       <c r="P52" s="6"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
-      <c r="F53" s="12">
-        <v>1</v>
+      <c r="F53" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="11">

--- a/2do/Hmmm_Artifact_nom_nom_nom_ahhhhhhh.xlsx
+++ b/2do/Hmmm_Artifact_nom_nom_nom_ahhhhhhh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Games\S.T.A.L.K.E.R\Anomaly Mods\mods\Back-to-roots-wip\2do\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B384EE-7F62-46A1-B50D-DC40A38C91BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B740D4C4-EE89-4C9B-BF14-032222DE2AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="300" windowWidth="22695" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1530" yWindow="720" windowWidth="22695" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -291,7 +291,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 2</t>
+      <t xml:space="preserve"> 4</t>
     </r>
   </si>
 </sst>
@@ -299,13 +299,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -534,10 +541,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -557,8 +564,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -866,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2850,7 +2858,7 @@
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
-      <c r="F53" s="24" t="s">
+      <c r="F53" s="25" t="s">
         <v>59</v>
       </c>
       <c r="G53" s="6"/>
@@ -2858,7 +2866,9 @@
         <v>6</v>
       </c>
       <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
+      <c r="J53" s="21">
+        <v>15</v>
+      </c>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>

--- a/2do/Hmmm_Artifact_nom_nom_nom_ahhhhhhh.xlsx
+++ b/2do/Hmmm_Artifact_nom_nom_nom_ahhhhhhh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Games\S.T.A.L.K.E.R\Anomaly Mods\mods\Back-to-roots-wip\2do\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B740D4C4-EE89-4C9B-BF14-032222DE2AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC87CC51-4571-4FB3-81BB-5E5DF58C9D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="720" windowWidth="22695" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13125" yWindow="930" windowWidth="15255" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="61">
   <si>
     <t>CoP</t>
   </si>
@@ -235,29 +235,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 8</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>2</t>
     </r>
     <r>
@@ -294,6 +271,32 @@
       <t xml:space="preserve"> 4</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 10</t>
+    </r>
+  </si>
+  <si>
+    <t>Heart of Oasis</t>
+  </si>
 </sst>
 </file>
 
@@ -306,13 +309,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -360,8 +356,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,6 +410,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,8 +552,8 @@
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -564,10 +573,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -874,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2811,7 +2820,7 @@
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="11">
@@ -2835,7 +2844,7 @@
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="11">
@@ -2858,8 +2867,8 @@
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
-      <c r="F53" s="25" t="s">
-        <v>59</v>
+      <c r="F53" s="24" t="s">
+        <v>58</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="11">
@@ -2877,7 +2886,7 @@
       <c r="P53" s="6"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B54" s="12">
@@ -2909,8 +2918,8 @@
       <c r="P54" s="6"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
-        <v>15</v>
+      <c r="A55" s="23" t="s">
+        <v>60</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -2922,8 +2931,8 @@
         <v>2</v>
       </c>
       <c r="G55" s="6"/>
-      <c r="H55" s="11">
-        <v>4</v>
+      <c r="H55" s="25">
+        <v>6</v>
       </c>
       <c r="I55" s="6"/>
       <c r="J55" s="12">
@@ -2939,7 +2948,7 @@
       <c r="P55" s="6"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B56" s="6"/>
@@ -2961,7 +2970,7 @@
       <c r="P56" s="6"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="23" t="s">
         <v>17</v>
       </c>
       <c r="B57" s="6"/>
@@ -2983,7 +2992,7 @@
       <c r="P57" s="6"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="23" t="s">
         <v>18</v>
       </c>
       <c r="B58" s="6"/>
@@ -3444,6 +3453,7 @@
       <c r="P77" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/2do/Hmmm_Artifact_nom_nom_nom_ahhhhhhh.xlsx
+++ b/2do/Hmmm_Artifact_nom_nom_nom_ahhhhhhh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Games\S.T.A.L.K.E.R\Anomaly Mods\mods\Back-to-roots-wip\2do\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC87CC51-4571-4FB3-81BB-5E5DF58C9D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992E4D2C-D9CD-4CA9-80DF-73FC6474CDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13125" yWindow="930" windowWidth="15255" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="915" windowWidth="15255" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -883,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3014,13 +3014,15 @@
       <c r="P58" s="6"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
+      <c r="E59" s="21">
+        <v>6</v>
+      </c>
       <c r="F59" s="6"/>
       <c r="G59" s="12">
         <v>180</v>
@@ -3038,7 +3040,7 @@
       <c r="P59" s="6"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B60" s="6"/>
@@ -3062,7 +3064,7 @@
       <c r="P60" s="6"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B61" s="6"/>
@@ -3086,7 +3088,7 @@
       <c r="P61" s="6"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="23" t="s">
         <v>22</v>
       </c>
       <c r="B62" s="6"/>
@@ -3110,7 +3112,7 @@
       <c r="P62" s="6"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="23" t="s">
         <v>23</v>
       </c>
       <c r="B63" s="6"/>

--- a/2do/Hmmm_Artifact_nom_nom_nom_ahhhhhhh.xlsx
+++ b/2do/Hmmm_Artifact_nom_nom_nom_ahhhhhhh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Games\S.T.A.L.K.E.R\Anomaly Mods\mods\Back-to-roots-wip\2do\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992E4D2C-D9CD-4CA9-80DF-73FC6474CDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575D423A-8E3E-4398-B65E-A10E7ABA0502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2295" yWindow="915" windowWidth="15255" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -883,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:A63"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3136,7 +3136,7 @@
       <c r="P63" s="6"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="13" t="s">
+      <c r="A64" s="23" t="s">
         <v>24</v>
       </c>
       <c r="B64" s="6"/>
@@ -3160,7 +3160,7 @@
       <c r="P64" s="6"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B65" s="6"/>
@@ -3184,14 +3184,16 @@
       <c r="P65" s="6"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="13" t="s">
+      <c r="A66" s="23" t="s">
         <v>26</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
+      <c r="F66" s="21">
+        <v>2</v>
+      </c>
       <c r="G66" s="6"/>
       <c r="H66" s="11">
         <v>6</v>

--- a/2do/Hmmm_Artifact_nom_nom_nom_ahhhhhhh.xlsx
+++ b/2do/Hmmm_Artifact_nom_nom_nom_ahhhhhhh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Games\S.T.A.L.K.E.R\Anomaly Mods\mods\Back-to-roots-wip\2do\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575D423A-8E3E-4398-B65E-A10E7ABA0502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36E31B8-E537-47E4-BA5D-8722F2A07F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="915" windowWidth="15255" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="1125" windowWidth="15255" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="63">
   <si>
     <t>CoP</t>
   </si>
@@ -296,6 +296,52 @@
   </si>
   <si>
     <t>Heart of Oasis</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>395</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 400</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>380</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 400</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -883,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N67" sqref="N67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3224,11 +3270,11 @@
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
-      <c r="M67" s="12">
-        <v>395</v>
-      </c>
-      <c r="N67" s="12">
-        <v>380</v>
+      <c r="M67" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="N67" s="24" t="s">
+        <v>62</v>
       </c>
       <c r="O67" s="6"/>
       <c r="P67" s="6"/>

--- a/2do/Hmmm_Artifact_nom_nom_nom_ahhhhhhh.xlsx
+++ b/2do/Hmmm_Artifact_nom_nom_nom_ahhhhhhh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Games\S.T.A.L.K.E.R\Anomaly Mods\mods\Back-to-roots-wip\2do\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36E31B8-E537-47E4-BA5D-8722F2A07F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26C7ADD-0F9D-4C1C-B13E-DD85A07C83DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1125" windowWidth="15255" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -348,13 +348,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -466,7 +473,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -592,14 +599,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -612,17 +643,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -929,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N67" sqref="N67"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB35" sqref="AB35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,14 +981,16 @@
     <col min="13" max="13" width="10.42578125" customWidth="1"/>
     <col min="14" max="14" width="11" customWidth="1"/>
     <col min="15" max="15" width="9.42578125" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" customWidth="1"/>
+    <col min="18" max="18" width="15.85546875" customWidth="1"/>
     <col min="19" max="19" width="12.28515625" customWidth="1"/>
     <col min="20" max="20" width="9.28515625" customWidth="1"/>
     <col min="21" max="21" width="12.140625" customWidth="1"/>
+    <col min="28" max="28" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20"/>
+      <c r="A1" s="19"/>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -986,7 +1020,7 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
+      <c r="AB1" s="26"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
@@ -1063,7 +1097,7 @@
       <c r="AA2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AB2" s="25" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1071,7 +1105,7 @@
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="16">
         <v>509</v>
       </c>
       <c r="D3" s="11">
@@ -1095,7 +1129,7 @@
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="13" t="s">
         <v>2</v>
       </c>
       <c r="S3" s="12">
@@ -1111,13 +1145,13 @@
       </c>
       <c r="Z3" s="6"/>
       <c r="AA3" s="6"/>
-      <c r="AB3" s="15"/>
+      <c r="AB3" s="6"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="16">
         <v>409</v>
       </c>
       <c r="D4" s="12">
@@ -1141,7 +1175,7 @@
       </c>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
-      <c r="R4" s="7" t="s">
+      <c r="R4" s="13" t="s">
         <v>3</v>
       </c>
       <c r="S4" s="12">
@@ -1157,13 +1191,13 @@
       </c>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
-      <c r="AB4" s="15"/>
+      <c r="AB4" s="6"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="12">
         <v>11</v>
       </c>
@@ -1184,7 +1218,7 @@
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
-      <c r="R5" s="7" t="s">
+      <c r="R5" s="13" t="s">
         <v>4</v>
       </c>
       <c r="S5" s="6"/>
@@ -1200,13 +1234,13 @@
       </c>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
-      <c r="AB5" s="15"/>
+      <c r="AB5" s="6"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="18">
         <v>97</v>
       </c>
       <c r="C6" s="12">
@@ -1227,7 +1261,7 @@
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
-      <c r="R6" s="7" t="s">
+      <c r="R6" s="13" t="s">
         <v>5</v>
       </c>
       <c r="S6" s="6"/>
@@ -1243,13 +1277,13 @@
       </c>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
-      <c r="AB6" s="15"/>
+      <c r="AB6" s="6"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="6"/>
       <c r="D7" s="12">
         <v>3365</v>
@@ -1274,7 +1308,7 @@
       </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
-      <c r="R7" s="7" t="s">
+      <c r="R7" s="13" t="s">
         <v>7</v>
       </c>
       <c r="S7" s="6"/>
@@ -1290,13 +1324,13 @@
       </c>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
-      <c r="AB7" s="15"/>
+      <c r="AB7" s="6"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="11">
         <v>4</v>
       </c>
@@ -1316,7 +1350,7 @@
         <v>85</v>
       </c>
       <c r="P8" s="6"/>
-      <c r="R8" s="7" t="s">
+      <c r="R8" s="13" t="s">
         <v>6</v>
       </c>
       <c r="S8" s="6"/>
@@ -1332,13 +1366,13 @@
       </c>
       <c r="Z8" s="6"/>
       <c r="AA8" s="6"/>
-      <c r="AB8" s="15"/>
+      <c r="AB8" s="6"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="18">
         <v>210</v>
       </c>
       <c r="C9" s="11">
@@ -1363,7 +1397,7 @@
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
-      <c r="R9" s="7" t="s">
+      <c r="R9" s="13" t="s">
         <v>8</v>
       </c>
       <c r="S9" s="6"/>
@@ -1379,13 +1413,13 @@
       </c>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
-      <c r="AB9" s="15"/>
+      <c r="AB9" s="6"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="11">
         <v>7</v>
       </c>
@@ -1410,7 +1444,7 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
-      <c r="R10" s="7" t="s">
+      <c r="R10" s="13" t="s">
         <v>9</v>
       </c>
       <c r="S10" s="6"/>
@@ -1426,13 +1460,13 @@
       </c>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
-      <c r="AB10" s="15"/>
+      <c r="AB10" s="6"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="18">
         <v>97</v>
       </c>
       <c r="C11" s="6"/>
@@ -1457,7 +1491,7 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
-      <c r="R11" s="7" t="s">
+      <c r="R11" s="13" t="s">
         <v>10</v>
       </c>
       <c r="S11" s="6"/>
@@ -1473,13 +1507,13 @@
       </c>
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
-      <c r="AB11" s="15"/>
+      <c r="AB11" s="6"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="11">
@@ -1506,7 +1540,7 @@
       <c r="P12" s="11">
         <v>1</v>
       </c>
-      <c r="R12" s="7" t="s">
+      <c r="R12" s="13" t="s">
         <v>11</v>
       </c>
       <c r="S12" s="6"/>
@@ -1522,13 +1556,13 @@
       </c>
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
-      <c r="AB12" s="15"/>
+      <c r="AB12" s="6"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="18">
         <v>97</v>
       </c>
       <c r="D13" s="6"/>
@@ -1552,7 +1586,7 @@
       <c r="P13" s="11">
         <v>0</v>
       </c>
-      <c r="R13" s="7" t="s">
+      <c r="R13" s="13" t="s">
         <v>12</v>
       </c>
       <c r="S13" s="6"/>
@@ -1568,13 +1602,13 @@
       </c>
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
-      <c r="AB13" s="15"/>
+      <c r="AB13" s="6"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="18"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="11">
@@ -1599,7 +1633,7 @@
       <c r="P14" s="11">
         <v>0</v>
       </c>
-      <c r="R14" s="7" t="s">
+      <c r="R14" s="13" t="s">
         <v>13</v>
       </c>
       <c r="S14" s="6"/>
@@ -1615,13 +1649,13 @@
       </c>
       <c r="Z14" s="6"/>
       <c r="AA14" s="6"/>
-      <c r="AB14" s="15"/>
+      <c r="AB14" s="6"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="18"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="11">
@@ -1650,7 +1684,7 @@
         <v>85</v>
       </c>
       <c r="P15" s="6"/>
-      <c r="R15" s="7" t="s">
+      <c r="R15" s="13" t="s">
         <v>14</v>
       </c>
       <c r="S15" s="12">
@@ -1674,13 +1708,13 @@
       </c>
       <c r="Z15" s="6"/>
       <c r="AA15" s="6"/>
-      <c r="AB15" s="15"/>
+      <c r="AB15" s="6"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="18">
         <v>329</v>
       </c>
       <c r="C16" s="11">
@@ -1711,7 +1745,7 @@
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
-      <c r="R16" s="7" t="s">
+      <c r="R16" s="13" t="s">
         <v>15</v>
       </c>
       <c r="S16" s="6"/>
@@ -1731,7 +1765,7 @@
       <c r="AA16" s="12">
         <v>2</v>
       </c>
-      <c r="AB16" s="16">
+      <c r="AB16" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1739,7 +1773,7 @@
       <c r="A17" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="16">
         <v>98</v>
       </c>
       <c r="C17" s="12">
@@ -1764,7 +1798,7 @@
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
-      <c r="R17" s="7" t="s">
+      <c r="R17" s="13" t="s">
         <v>16</v>
       </c>
       <c r="S17" s="6"/>
@@ -1778,13 +1812,13 @@
       </c>
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
-      <c r="AB17" s="15"/>
+      <c r="AB17" s="6"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="18"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="12">
         <v>5</v>
       </c>
@@ -1813,7 +1847,7 @@
         <v>320</v>
       </c>
       <c r="P18" s="6"/>
-      <c r="R18" s="7" t="s">
+      <c r="R18" s="13" t="s">
         <v>17</v>
       </c>
       <c r="S18" s="6"/>
@@ -1827,13 +1861,13 @@
       </c>
       <c r="Z18" s="6"/>
       <c r="AA18" s="6"/>
-      <c r="AB18" s="15"/>
+      <c r="AB18" s="6"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="16">
         <v>98</v>
       </c>
       <c r="C19" s="6"/>
@@ -1862,7 +1896,7 @@
         <v>223</v>
       </c>
       <c r="P19" s="6"/>
-      <c r="R19" s="7" t="s">
+      <c r="R19" s="13" t="s">
         <v>18</v>
       </c>
       <c r="S19" s="6"/>
@@ -1876,13 +1910,13 @@
       </c>
       <c r="Z19" s="6"/>
       <c r="AA19" s="6"/>
-      <c r="AB19" s="15"/>
+      <c r="AB19" s="6"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="18">
         <v>210</v>
       </c>
       <c r="C20" s="6"/>
@@ -1901,7 +1935,7 @@
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="P20" s="6"/>
-      <c r="R20" s="7" t="s">
+      <c r="R20" s="13" t="s">
         <v>19</v>
       </c>
       <c r="S20" s="6"/>
@@ -1917,13 +1951,13 @@
       </c>
       <c r="Z20" s="6"/>
       <c r="AA20" s="6"/>
-      <c r="AB20" s="15"/>
+      <c r="AB20" s="6"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="18">
         <v>97</v>
       </c>
       <c r="C21" s="12">
@@ -1946,7 +1980,7 @@
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
-      <c r="R21" s="7" t="s">
+      <c r="R21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="S21" s="6"/>
@@ -1962,13 +1996,13 @@
       </c>
       <c r="Z21" s="6"/>
       <c r="AA21" s="6"/>
-      <c r="AB21" s="15"/>
+      <c r="AB21" s="6"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="18"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -1993,7 +2027,7 @@
         <v>85</v>
       </c>
       <c r="P22" s="6"/>
-      <c r="R22" s="7" t="s">
+      <c r="R22" s="13" t="s">
         <v>21</v>
       </c>
       <c r="S22" s="6"/>
@@ -2009,13 +2043,13 @@
         <v>12</v>
       </c>
       <c r="AA22" s="6"/>
-      <c r="AB22" s="15"/>
+      <c r="AB22" s="6"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="18"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="6"/>
       <c r="D23" s="11">
         <v>498</v>
@@ -2040,7 +2074,7 @@
         <v>85</v>
       </c>
       <c r="P23" s="6"/>
-      <c r="R23" s="7" t="s">
+      <c r="R23" s="13" t="s">
         <v>22</v>
       </c>
       <c r="S23" s="6"/>
@@ -2056,13 +2090,13 @@
         <v>8</v>
       </c>
       <c r="AA23" s="6"/>
-      <c r="AB23" s="15"/>
+      <c r="AB23" s="6"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="18">
         <v>97</v>
       </c>
       <c r="C24" s="12">
@@ -2085,7 +2119,7 @@
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
-      <c r="R24" s="7" t="s">
+      <c r="R24" s="13" t="s">
         <v>23</v>
       </c>
       <c r="S24" s="6"/>
@@ -2101,13 +2135,13 @@
         <v>4</v>
       </c>
       <c r="AA24" s="6"/>
-      <c r="AB24" s="15"/>
+      <c r="AB24" s="6"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="18"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="11">
@@ -2136,7 +2170,7 @@
       <c r="P25" s="11">
         <v>1</v>
       </c>
-      <c r="R25" s="7" t="s">
+      <c r="R25" s="13" t="s">
         <v>24</v>
       </c>
       <c r="S25" s="6"/>
@@ -2152,13 +2186,13 @@
       <c r="AA25" s="12">
         <v>6</v>
       </c>
-      <c r="AB25" s="15"/>
+      <c r="AB25" s="6"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="18"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="11">
         <v>4</v>
       </c>
@@ -2183,7 +2217,7 @@
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
-      <c r="R26" s="7" t="s">
+      <c r="R26" s="13" t="s">
         <v>25</v>
       </c>
       <c r="S26" s="6"/>
@@ -2199,13 +2233,13 @@
       <c r="AA26" s="12">
         <v>4</v>
       </c>
-      <c r="AB26" s="15"/>
+      <c r="AB26" s="6"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="16">
         <v>98</v>
       </c>
       <c r="C27" s="6"/>
@@ -2228,7 +2262,7 @@
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
-      <c r="R27" s="7" t="s">
+      <c r="R27" s="13" t="s">
         <v>26</v>
       </c>
       <c r="S27" s="6"/>
@@ -2244,13 +2278,13 @@
       <c r="AA27" s="12">
         <v>2</v>
       </c>
-      <c r="AB27" s="15"/>
+      <c r="AB27" s="6"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B28" s="16">
         <v>409</v>
       </c>
       <c r="C28" s="12">
@@ -2286,7 +2320,7 @@
       <c r="A29" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="18"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="6"/>
       <c r="D29" s="12">
         <v>499</v>
@@ -2320,7 +2354,7 @@
       <c r="A30" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="18"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="11">
@@ -2354,7 +2388,7 @@
       <c r="A31" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="18">
         <v>210</v>
       </c>
       <c r="C31" s="6"/>
@@ -2410,7 +2444,7 @@
       <c r="A33" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="18"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -2434,7 +2468,7 @@
       <c r="A34" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="18"/>
+      <c r="B34" s="17"/>
       <c r="C34" s="12">
         <v>18</v>
       </c>
@@ -2462,7 +2496,7 @@
       <c r="A35" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="18"/>
+      <c r="B35" s="17"/>
       <c r="C35" s="11">
         <v>4</v>
       </c>
@@ -2492,7 +2526,7 @@
       <c r="A36" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B36" s="16">
         <v>211</v>
       </c>
       <c r="C36" s="11">
@@ -2520,57 +2554,57 @@
       <c r="A37" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="17">
+      <c r="B37" s="16">
         <v>98</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="17">
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="16">
         <v>110</v>
       </c>
       <c r="H37" s="11">
         <v>12</v>
       </c>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
       <c r="O37" s="11">
         <v>85</v>
       </c>
-      <c r="P37" s="18"/>
+      <c r="P37" s="17"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="19">
+      <c r="B38" s="18">
         <v>97</v>
       </c>
-      <c r="C38" s="18"/>
+      <c r="C38" s="17"/>
       <c r="D38" s="12">
         <v>1623</v>
       </c>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
       <c r="H38" s="11">
         <v>12</v>
       </c>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
       <c r="O38" s="12">
         <v>85</v>
       </c>
-      <c r="P38" s="18"/>
+      <c r="P38" s="17"/>
     </row>
     <row r="39" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2640,10 +2674,10 @@
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="17">
+      <c r="B42" s="16">
         <v>600</v>
       </c>
       <c r="C42" s="6"/>
@@ -2664,10 +2698,10 @@
       <c r="P42" s="6"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="17">
+      <c r="B43" s="16">
         <v>300</v>
       </c>
       <c r="C43" s="6"/>
@@ -2688,7 +2722,7 @@
       <c r="P43" s="6"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="22" t="s">
         <v>4</v>
       </c>
       <c r="B44" s="6"/>
@@ -2712,7 +2746,7 @@
       <c r="P44" s="6"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="22" t="s">
         <v>5</v>
       </c>
       <c r="B45" s="6"/>
@@ -2736,7 +2770,7 @@
       <c r="P45" s="6"/>
     </row>
     <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="22" t="s">
         <v>7</v>
       </c>
       <c r="B46" s="6"/>
@@ -2760,7 +2794,7 @@
       <c r="P46" s="6"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B47" s="6"/>
@@ -2784,13 +2818,13 @@
       <c r="P47" s="6"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
-      <c r="E48" s="22" t="s">
+      <c r="E48" s="21" t="s">
         <v>56</v>
       </c>
       <c r="F48" s="6"/>
@@ -2808,7 +2842,7 @@
       <c r="P48" s="6"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B49" s="6"/>
@@ -2832,12 +2866,12 @@
       <c r="P49" s="6"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="22" t="s">
         <v>10</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
-      <c r="D50" s="21">
+      <c r="D50" s="20">
         <v>600</v>
       </c>
       <c r="E50" s="12">
@@ -2858,14 +2892,14 @@
       <c r="P50" s="6"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="23" t="s">
+      <c r="A51" s="22" t="s">
         <v>11</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
-      <c r="F51" s="24" t="s">
+      <c r="F51" s="23" t="s">
         <v>59</v>
       </c>
       <c r="G51" s="6"/>
@@ -2882,14 +2916,14 @@
       <c r="P51" s="6"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="22" t="s">
         <v>12</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
-      <c r="F52" s="24" t="s">
+      <c r="F52" s="23" t="s">
         <v>57</v>
       </c>
       <c r="G52" s="6"/>
@@ -2906,14 +2940,14 @@
       <c r="P52" s="6"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
-      <c r="F53" s="24" t="s">
+      <c r="F53" s="23" t="s">
         <v>58</v>
       </c>
       <c r="G53" s="6"/>
@@ -2921,7 +2955,7 @@
         <v>6</v>
       </c>
       <c r="I53" s="6"/>
-      <c r="J53" s="21">
+      <c r="J53" s="20">
         <v>15</v>
       </c>
       <c r="K53" s="6"/>
@@ -2932,7 +2966,7 @@
       <c r="P53" s="6"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="22" t="s">
         <v>14</v>
       </c>
       <c r="B54" s="12">
@@ -2964,7 +2998,7 @@
       <c r="P54" s="6"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="22" t="s">
         <v>60</v>
       </c>
       <c r="B55" s="6"/>
@@ -2977,14 +3011,14 @@
         <v>2</v>
       </c>
       <c r="G55" s="6"/>
-      <c r="H55" s="25">
+      <c r="H55" s="24">
         <v>6</v>
       </c>
       <c r="I55" s="6"/>
       <c r="J55" s="12">
         <v>60</v>
       </c>
-      <c r="K55" s="16">
+      <c r="K55" s="15">
         <v>1</v>
       </c>
       <c r="L55" s="6"/>
@@ -2994,7 +3028,7 @@
       <c r="P55" s="6"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="22" t="s">
         <v>16</v>
       </c>
       <c r="B56" s="6"/>
@@ -3016,7 +3050,7 @@
       <c r="P56" s="6"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="22" t="s">
         <v>17</v>
       </c>
       <c r="B57" s="6"/>
@@ -3038,7 +3072,7 @@
       <c r="P57" s="6"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="23" t="s">
+      <c r="A58" s="22" t="s">
         <v>18</v>
       </c>
       <c r="B58" s="6"/>
@@ -3060,13 +3094,13 @@
       <c r="P58" s="6"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="23" t="s">
+      <c r="A59" s="22" t="s">
         <v>19</v>
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="21">
+      <c r="E59" s="20">
         <v>6</v>
       </c>
       <c r="F59" s="6"/>
@@ -3086,7 +3120,7 @@
       <c r="P59" s="6"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="23" t="s">
+      <c r="A60" s="22" t="s">
         <v>20</v>
       </c>
       <c r="B60" s="6"/>
@@ -3110,7 +3144,7 @@
       <c r="P60" s="6"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="23" t="s">
+      <c r="A61" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B61" s="6"/>
@@ -3134,7 +3168,7 @@
       <c r="P61" s="6"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="23" t="s">
+      <c r="A62" s="22" t="s">
         <v>22</v>
       </c>
       <c r="B62" s="6"/>
@@ -3158,7 +3192,7 @@
       <c r="P62" s="6"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="23" t="s">
+      <c r="A63" s="22" t="s">
         <v>23</v>
       </c>
       <c r="B63" s="6"/>
@@ -3182,7 +3216,7 @@
       <c r="P63" s="6"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="23" t="s">
+      <c r="A64" s="22" t="s">
         <v>24</v>
       </c>
       <c r="B64" s="6"/>
@@ -3206,7 +3240,7 @@
       <c r="P64" s="6"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="23" t="s">
+      <c r="A65" s="22" t="s">
         <v>25</v>
       </c>
       <c r="B65" s="6"/>
@@ -3230,14 +3264,14 @@
       <c r="P65" s="6"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="23" t="s">
+      <c r="A66" s="22" t="s">
         <v>26</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
-      <c r="F66" s="21">
+      <c r="F66" s="20">
         <v>2</v>
       </c>
       <c r="G66" s="6"/>
@@ -3270,10 +3304,10 @@
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
-      <c r="M67" s="24" t="s">
+      <c r="M67" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="N67" s="24" t="s">
+      <c r="N67" s="23" t="s">
         <v>62</v>
       </c>
       <c r="O67" s="6"/>
@@ -3503,7 +3537,7 @@
       <c r="P77" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
